--- a/usersData.xlsx
+++ b/usersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Documents\Faculdade\5º Ano\IPM - Interação Pessoa Máquina\IPM - trabalhos\UnbreakableKid.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281179F6-BF79-4E13-ABCA-7EE90FFE668A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD3F0C2-9F4C-4292-B65D-F43022EEAB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDA00641-E68B-4BD5-B19F-0CBD3DCCEBCE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Photo</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Friends</t>
   </si>
   <si>
-    <t>Books</t>
-  </si>
-  <si>
     <t>Marta</t>
   </si>
   <si>
@@ -142,13 +139,42 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Whislist</t>
+  </si>
+  <si>
+    <r>
+      <t>LongIntegerToIdentifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>ToRead</t>
+  </si>
+  <si>
+    <t>BooksRead</t>
+  </si>
+  <si>
+    <t>FavouriteBooks</t>
+  </si>
+  <si>
+    <t>LongIntegerToIdentifier(1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +198,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,10 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -513,20 +554,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECC9920-0448-41DA-A401-3E8976D15A4E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -544,184 +588,199 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -735,16 +794,16 @@
     <hyperlink ref="D9" r:id="rId8" xr:uid="{041A7327-CB98-4067-BE51-B511ACE65D4A}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{2702D101-31A9-4B8D-B98A-E3CBE20DB26B}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{B0554F8D-1CFF-4074-82E1-803153CABE92}"/>
-    <hyperlink ref="H2" r:id="rId11" xr:uid="{B41DD90E-BFE4-4191-8753-006CA5CD5C78}"/>
-    <hyperlink ref="H3" r:id="rId12" xr:uid="{5A79A2B9-BA66-4337-BF4F-BEE1A1E9E4D1}"/>
-    <hyperlink ref="H4" r:id="rId13" xr:uid="{DA5AA981-B16F-423A-9CE5-0DC6D9A1D9B7}"/>
-    <hyperlink ref="H5" r:id="rId14" xr:uid="{40C25F0D-12F4-493F-8A59-35EE75FD3B64}"/>
-    <hyperlink ref="H6" r:id="rId15" xr:uid="{52CFD02B-AC05-46A5-95EC-A0F7A6B8F5CF}"/>
-    <hyperlink ref="H7" r:id="rId16" xr:uid="{AF7F8D23-EDC8-479B-8E3D-C73681BA5852}"/>
-    <hyperlink ref="H8" r:id="rId17" xr:uid="{7445F738-81B8-43B3-B9CD-BA339B70CD77}"/>
-    <hyperlink ref="H9" r:id="rId18" xr:uid="{E9B71E1F-DC45-4FF6-91E0-47A2CE8C735A}"/>
-    <hyperlink ref="H10" r:id="rId19" xr:uid="{5E5B51B1-D91A-4959-B3EF-12A3829FEAF4}"/>
-    <hyperlink ref="H11" r:id="rId20" xr:uid="{F2C98EA9-6BE0-4963-B419-B83F2D98D3AE}"/>
+    <hyperlink ref="K2" r:id="rId11" xr:uid="{B41DD90E-BFE4-4191-8753-006CA5CD5C78}"/>
+    <hyperlink ref="K3" r:id="rId12" xr:uid="{5A79A2B9-BA66-4337-BF4F-BEE1A1E9E4D1}"/>
+    <hyperlink ref="K4" r:id="rId13" xr:uid="{DA5AA981-B16F-423A-9CE5-0DC6D9A1D9B7}"/>
+    <hyperlink ref="K5" r:id="rId14" xr:uid="{40C25F0D-12F4-493F-8A59-35EE75FD3B64}"/>
+    <hyperlink ref="K6" r:id="rId15" xr:uid="{52CFD02B-AC05-46A5-95EC-A0F7A6B8F5CF}"/>
+    <hyperlink ref="K7" r:id="rId16" xr:uid="{AF7F8D23-EDC8-479B-8E3D-C73681BA5852}"/>
+    <hyperlink ref="K8" r:id="rId17" xr:uid="{7445F738-81B8-43B3-B9CD-BA339B70CD77}"/>
+    <hyperlink ref="K9" r:id="rId18" xr:uid="{E9B71E1F-DC45-4FF6-91E0-47A2CE8C735A}"/>
+    <hyperlink ref="K10" r:id="rId19" xr:uid="{5E5B51B1-D91A-4959-B3EF-12A3829FEAF4}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{F2C98EA9-6BE0-4963-B419-B83F2D98D3AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
